--- a/Exercise 1/Exercise1_template_2021.xlsx
+++ b/Exercise 1/Exercise1_template_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Christian Segercrant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59a73ea97849167b/Documents/GitHub/Decision-Making-and-Problem-Solving-course-2021/Exercise 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F512F9-7C61-4960-AFF1-64D303963178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="treeCalc_1" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -420,7 +420,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000000000000\ %"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000\ %"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -493,6 +493,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -767,7 +768,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1499,9 +1500,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1555,12 +1556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1646,7 +1647,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1672,7 +1673,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1698,7 +1699,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1726,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1756,7 +1757,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1786,7 +1787,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1816,7 +1817,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1848,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1912,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1938,7 +1939,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1966,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1998,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2027,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2056,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2110,7 +2111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2142,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2174,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2206,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2234,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2260,7 +2261,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2292,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2324,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2372,7 +2373,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2384,9 +2385,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2475,24 +2476,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
@@ -2506,7 +2507,7 @@
       <c r="I1" s="32"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>116</v>
       </c>
@@ -2527,7 +2528,7 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>66</v>
       </c>
@@ -2558,7 +2559,7 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>65</v>
       </c>
@@ -2580,7 +2581,7 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G5" s="16"/>
       <c r="H5" s="10" t="s">
         <v>68</v>
@@ -2596,7 +2597,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>104</v>
       </c>
@@ -2615,7 +2616,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>58</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>59</v>
       </c>
@@ -2651,7 +2652,7 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>60</v>
       </c>
@@ -2677,7 +2678,7 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2691,7 +2692,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>67</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="J12" s="22" t="s">
         <v>106</v>
       </c>
@@ -2719,7 +2720,7 @@
       </c>
       <c r="P12" s="52"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="E13" s="19" t="s">
         <v>76</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="E14" s="17">
         <f>calculations!M7</f>
         <v>0.40350000000000008</v>
@@ -2773,7 +2774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I15" s="19" t="s">
         <v>75</v>
       </c>
@@ -2783,19 +2784,19 @@
       </c>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="D16" s="22" t="s">
         <v>80</v>
       </c>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="D17" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
         <v>73</v>
       </c>
@@ -2806,7 +2807,7 @@
       <c r="F18" s="18"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="F19" s="18"/>
       <c r="K19" s="19" t="s">
         <v>76</v>
@@ -2816,7 +2817,7 @@
       </c>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="J20" s="22" t="s">
         <v>106</v>
       </c>
@@ -2833,7 +2834,7 @@
       </c>
       <c r="P20" s="52"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
         <v>76</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="E22" s="17">
         <f>calculations!M8</f>
         <v>0.34500000000000003</v>
@@ -2887,7 +2888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>105</v>
       </c>
@@ -2900,7 +2901,7 @@
       </c>
       <c r="K23" s="37"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="str">
         <f>IF(D43=B24,C43,IF(D38=B24,C38,C18))</f>
         <v>Take a test</v>
@@ -2911,10 +2912,10 @@
       </c>
       <c r="L24" s="18"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="K27" s="19" t="s">
         <v>76</v>
       </c>
@@ -2923,7 +2924,7 @@
       </c>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="J28" s="22" t="s">
         <v>106</v>
       </c>
@@ -2940,7 +2941,7 @@
       </c>
       <c r="P28" s="52"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="E29" s="19" t="s">
         <v>76</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="E30" s="17">
         <f>calculations!M9</f>
         <v>0.2515</v>
@@ -2994,7 +2995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="I31" s="19" t="s">
         <v>75</v>
       </c>
@@ -3004,7 +3005,7 @@
       </c>
       <c r="K31" s="37"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="E36" s="19" t="s">
         <v>76</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="D37" s="22" t="s">
         <v>106</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
         <v>74</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="E39" s="17">
         <f>calculations!B15</f>
         <v>0.2</v>
@@ -3061,13 +3062,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="D42" s="19" t="s">
         <v>72</v>
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="3:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C43" s="19" t="s">
         <v>75</v>
       </c>
@@ -3093,23 +3094,23 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>113</v>
       </c>
@@ -3117,12 +3118,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>57</v>
       </c>
@@ -3133,12 +3134,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="G5" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>58</v>
@@ -3166,7 +3167,7 @@
       </c>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>82</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>0.40350000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>83</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>0.34500000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>84</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>0.2515</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>61</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>108</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -3352,7 +3353,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -3438,7 +3439,7 @@
       <c r="M16" s="11"/>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>97</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>109</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -3552,12 +3553,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="H23" s="41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="I24" t="s">
@@ -3573,7 +3574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>92</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>97</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>102</v>
       </c>
@@ -3628,68 +3629,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="40"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" s="40"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" s="40"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G46" s="8"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G47" s="8"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G48" s="8"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="G50" s="9"/>
     </row>

--- a/Exercise 1/Exercise1_template_2021.xlsx
+++ b/Exercise 1/Exercise1_template_2021.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F512F9-7C61-4960-AFF1-64D303963178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="treeCalc_1" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="treeList" hidden="1">"10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2476,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3090,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
